--- a/Excel_Files/COMPASS_Planning.xlsx
+++ b/Excel_Files/COMPASS_Planning.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\Compass\Communications_Sprints\Sprint_30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\COMPASS\Communications_Sprints\Sprint_31\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="6465"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -253,15 +253,6 @@
     <t xml:space="preserve">In order to have na efficient sprint, we will test the above tickets. This will provide us a more accurate view on the current backlog and next topics to handle. </t>
   </si>
   <si>
-    <t xml:space="preserve">For this sprint scope, one good milestone we propose to achieve is the delivery of the documentation. </t>
-  </si>
-  <si>
-    <t>In terms of enhancements, [CMP-413 and CMP-423] will provide better results and quality to the application.</t>
-  </si>
-  <si>
-    <t>BST_SPRINT_35</t>
-  </si>
-  <si>
     <t>Release on Production on 26th July.</t>
   </si>
   <si>
@@ -271,120 +262,12 @@
     <t>Deployments will be delivered as soon as code is available.</t>
   </si>
   <si>
-    <t>The current date of 5th of August is the deadline date for the full scope to be delivered on QUAL.</t>
-  </si>
-  <si>
-    <t>BST-1729</t>
-  </si>
-  <si>
-    <t>BST-1730</t>
-  </si>
-  <si>
-    <t>BST-1727</t>
-  </si>
-  <si>
-    <t>BST-1728</t>
-  </si>
-  <si>
-    <t>BST-1719</t>
-  </si>
-  <si>
-    <t>BST-1720</t>
-  </si>
-  <si>
-    <t>BST-1717</t>
-  </si>
-  <si>
-    <t>BST-1732</t>
-  </si>
-  <si>
-    <t>BST-1733</t>
-  </si>
-  <si>
-    <t>BST-1734</t>
-  </si>
-  <si>
-    <t>BST-1687</t>
-  </si>
-  <si>
-    <t>BST-1664</t>
-  </si>
-  <si>
-    <t>BST-892</t>
-  </si>
-  <si>
-    <t>[COLLAT] - Mapping CPTCDTMP KO</t>
-  </si>
-  <si>
-    <t>[Mapping Portfolio] - LevelPrestation - Update BST_PORTFOLIO_ISLIQUIDATED  V8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[BST] Mapping status monitoring </t>
-  </si>
-  <si>
-    <t>Node crashing in the morning + logs error while restarting</t>
-  </si>
-  <si>
-    <t>Adding new data in BST_REF_VAL from XML message id_bb_company linked with CTO-1934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Mapping] Fx rate null for a currency not to mapped in ssettoalto_currency_quotations linked with CTO-2060 </t>
-  </si>
-  <si>
-    <t>[Mapping Asset] - CFI_CODE - CTO-2110</t>
-  </si>
-  <si>
-    <t>[API ISSUER] - asAtDate to removed</t>
-  </si>
-  <si>
-    <t>Overriding values: message error</t>
-  </si>
-  <si>
-    <t>Overriding values: Third party name</t>
-  </si>
-  <si>
-    <t>Overriding values: import NEW VALUE format ERROR</t>
-  </si>
-  <si>
-    <t>[COLLAT] - INTEGRATION FILE - PROD</t>
-  </si>
-  <si>
-    <t>[API Codification-Groups] - Update Palmyra</t>
-  </si>
-  <si>
     <t>IT ADM TEST</t>
   </si>
   <si>
     <t>CRITICITY</t>
   </si>
   <si>
-    <t>BLOCKER</t>
-  </si>
-  <si>
-    <t>CRITICAL</t>
-  </si>
-  <si>
-    <t>MAJOR</t>
-  </si>
-  <si>
-    <t>Assigned to Zied. Waiting for feedback from BST-1711 (SP34). Will be deployment on PROD on 26.07</t>
-  </si>
-  <si>
-    <t>SP34 full tested and released on PROD on 26th of July.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backlog refinement with BA team. Currently 26% of tickets not estimated or missing informations. </t>
-  </si>
-  <si>
-    <t>BST-1352</t>
-  </si>
-  <si>
-    <t>[API Diffusion-lists] - KO PROD/PREPROD</t>
-  </si>
-  <si>
-    <t>Test needs to be performed, in order to see if the problem still persists</t>
-  </si>
-  <si>
     <t>GREETINGS</t>
   </si>
   <si>
@@ -394,10 +277,139 @@
     <t>METRICS</t>
   </si>
   <si>
-    <t>IMAGE1</t>
-  </si>
-  <si>
-    <t>IMAGE2</t>
+    <t>CMP_SPRINT_31</t>
+  </si>
+  <si>
+    <t>Not expected</t>
+  </si>
+  <si>
+    <t>To be discussed</t>
+  </si>
+  <si>
+    <t>Based on August holidays, for Sprint 31 we will not deliver any new development or bug fixing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the other hand, Compass Core Team will fully test the below tickets in order to be included on the next release in PROD. </t>
+  </si>
+  <si>
+    <t>CMP-437</t>
+  </si>
+  <si>
+    <t>CMP-119</t>
+  </si>
+  <si>
+    <t>CMP-242</t>
+  </si>
+  <si>
+    <t>CMP-120</t>
+  </si>
+  <si>
+    <t>CMP-361</t>
+  </si>
+  <si>
+    <t>CMP-367</t>
+  </si>
+  <si>
+    <t>CMP-384</t>
+  </si>
+  <si>
+    <t>CMP-413</t>
+  </si>
+  <si>
+    <t>CMP-423</t>
+  </si>
+  <si>
+    <t>CMP-416</t>
+  </si>
+  <si>
+    <t>CMP-16</t>
+  </si>
+  <si>
+    <t>CMP-412</t>
+  </si>
+  <si>
+    <t>CMP-408</t>
+  </si>
+  <si>
+    <t>CMP-407</t>
+  </si>
+  <si>
+    <t>CMP-399</t>
+  </si>
+  <si>
+    <t>CMP-386</t>
+  </si>
+  <si>
+    <t>CMP-109</t>
+  </si>
+  <si>
+    <t>CMP-68</t>
+  </si>
+  <si>
+    <t>CMP-405</t>
+  </si>
+  <si>
+    <t>Analyse and Tests for Sprint 31</t>
+  </si>
+  <si>
+    <t>Calculations : BL Revenue Step 2</t>
+  </si>
+  <si>
+    <t>RevBL - GUI modification to allow RevBL launch and visualisation</t>
+  </si>
+  <si>
+    <t>Calculations : BL Revenue Step 3</t>
+  </si>
+  <si>
+    <t>FTE Keys missing from CALCULATION_KVALUE table</t>
+  </si>
+  <si>
+    <t>Rev BL Step 3 - The system shall apply only key values, which are applicable on the calculated period</t>
+  </si>
+  <si>
+    <t>Define model for storing monthly results (historisation) - GOI by BusLine</t>
+  </si>
+  <si>
+    <t>Enhancement - specific steps to map old cost centers to new business unit hierarchy</t>
+  </si>
+  <si>
+    <t>Enhancement - specific steps to map old cost centers to new business unit hierarchy - Costs</t>
+  </si>
+  <si>
+    <t>Enhancement - add Step 3 to Cost by BL</t>
+  </si>
+  <si>
+    <t>GUI: Screen Overview</t>
+  </si>
+  <si>
+    <t>Calculation GUI  : differentiate button rev by client from calculate all / revenue by BL  only start rev by BL</t>
+  </si>
+  <si>
+    <t>Delete of a historized version should provoke a physical delete of data</t>
+  </si>
+  <si>
+    <t>Problem uploading multiple keys in KValue integration</t>
+  </si>
+  <si>
+    <t>GUI -KValue Integration File name missing</t>
+  </si>
+  <si>
+    <t>Show warning message to the user launching an export &gt; 1000 kvalues</t>
+  </si>
+  <si>
+    <t>Data Load : Compass Cost Centers Computation</t>
+  </si>
+  <si>
+    <t>Data Load: AUA Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative key values impossible in the GUI </t>
+  </si>
+  <si>
+    <t>Plan the release of 24th of August 2024</t>
+  </si>
+  <si>
+    <t>Documentation and Grooming Sessions on CMP-436</t>
   </si>
 </sst>
 </file>
@@ -482,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -536,9 +548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -751,6 +760,7 @@
       <sheetName val="SPRINT 33"/>
       <sheetName val="SPRINT 34"/>
       <sheetName val="SPRINT 35"/>
+      <sheetName val="SPRINT 36"/>
       <sheetName val="DATA"/>
       <sheetName val="BACKLOG"/>
       <sheetName val="BACKLOG_PERFORMANCE"/>
@@ -835,14 +845,15 @@
       <sheetData sheetId="42"/>
       <sheetData sheetId="43"/>
       <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A44:F45" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="A44:F45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A32:F51" totalsRowShown="0" headerRowDxfId="33">
+  <autoFilter ref="A32:F51"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -856,8 +867,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G37" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A24:G37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G25" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A24:G25"/>
   <tableColumns count="7">
     <tableColumn id="1" name="PRIORITY" dataDxfId="30"/>
     <tableColumn id="2" name="JIRA" dataDxfId="29"/>
@@ -1210,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,13 +1257,13 @@
         <v>38</v>
       </c>
       <c r="B3" s="6">
-        <v>45495</v>
+        <v>45516</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="6">
-        <v>45513</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,15 +1271,15 @@
         <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1286,10 +1297,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
         <v>50</v>
@@ -1305,13 +1316,13 @@
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>71</v>
+      <c r="A11" s="26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>72</v>
+      <c r="A12" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1322,10 +1333,10 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1339,14 +1350,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>45513</v>
-      </c>
-      <c r="B17" s="19">
-        <v>45516</v>
-      </c>
-      <c r="C17" s="18">
-        <v>45520</v>
+      <c r="A17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1360,23 +1371,21 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>73</v>
+      <c r="A20" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>74</v>
-      </c>
+      <c r="A21" s="23"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -1398,439 +1407,488 @@
         <v>20</v>
       </c>
       <c r="G24" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="22" t="s">
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="21">
-        <v>5</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="22" t="s">
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="21">
-        <v>3</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="21">
-        <v>5</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="21">
-        <v>5</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="B44" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="21">
-        <v>3</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="21">
-        <v>3</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="21">
-        <v>3</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="21">
-        <v>1</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="21">
-        <v>5</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="21">
-        <v>5</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="21">
-        <v>5</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="21">
-        <v>5</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="21">
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:7" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="28"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
         <v>31</v>
       </c>
-      <c r="F45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="28"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="28"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="26" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="24"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1868,13 +1926,13 @@
           <x14:formula1>
             <xm:f>AUTOMATION!$A$13:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>A25:A37 A45</xm:sqref>
+          <xm:sqref>A25 A33:A51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$13:$E$21</xm:f>
           </x14:formula1>
-          <xm:sqref>D25:D37 D45</xm:sqref>
+          <xm:sqref>D25 D33:D51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excel_Files/COMPASS_Planning.xlsx
+++ b/Excel_Files/COMPASS_Planning.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\COMPASS\Communications_Sprints\Sprint_31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\COMPASS\COMUNICATIONS\Sprint_31\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="6465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -253,15 +253,6 @@
     <t xml:space="preserve">In order to have na efficient sprint, we will test the above tickets. This will provide us a more accurate view on the current backlog and next topics to handle. </t>
   </si>
   <si>
-    <t>Release on Production on 26th July.</t>
-  </si>
-  <si>
-    <t>Intermediary releases during the sprint, in order to achieve a smooth transition and tests between environments.</t>
-  </si>
-  <si>
-    <t>Deployments will be delivered as soon as code is available.</t>
-  </si>
-  <si>
     <t>IT ADM TEST</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t>GREETINGS</t>
   </si>
   <si>
-    <t xml:space="preserve">I would like to thanks to everyone involved on the project, withouth you the above could not be possible. </t>
-  </si>
-  <si>
     <t>METRICS</t>
   </si>
   <si>
@@ -364,9 +352,6 @@
     <t>FTE Keys missing from CALCULATION_KVALUE table</t>
   </si>
   <si>
-    <t>Rev BL Step 3 - The system shall apply only key values, which are applicable on the calculated period</t>
-  </si>
-  <si>
     <t>Define model for storing monthly results (historisation) - GOI by BusLine</t>
   </si>
   <si>
@@ -410,6 +395,18 @@
   </si>
   <si>
     <t>Documentation and Grooming Sessions on CMP-436</t>
+  </si>
+  <si>
+    <t>Rev BL Step 3 - The system shall apply only key values which are applicable on the calculated period</t>
+  </si>
+  <si>
+    <t>Compass Core Team will test 19 open tickets on backlog.</t>
+  </si>
+  <si>
+    <t>Even thought August is a month of holidays, Compass Core Team will reduce the amont of tickets/defects on backlog.</t>
+  </si>
+  <si>
+    <t>Thanks to everyone involved on the Sprint Planning session. Now, let's keep the pace.</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1294,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3">
         <v>19</v>
@@ -1317,12 +1314,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1351,13 +1348,13 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1371,9 +1368,7 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>70</v>
-      </c>
+      <c r="A20" s="25"/>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1407,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1424,13 +1419,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1"/>
     </row>
@@ -1466,10 +1461,10 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
         <v>30</v>
@@ -1483,10 +1478,10 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -1500,10 +1495,10 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
@@ -1517,10 +1512,10 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -1534,10 +1529,10 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
@@ -1551,10 +1546,10 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -1568,13 +1563,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
         <v>31</v>
@@ -1585,10 +1580,10 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
@@ -1602,10 +1597,10 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
@@ -1619,10 +1614,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
@@ -1636,10 +1631,10 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
@@ -1653,10 +1648,10 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
@@ -1670,10 +1665,10 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1687,10 +1682,10 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
@@ -1704,10 +1699,10 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
@@ -1721,10 +1716,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -1738,10 +1733,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
@@ -1755,10 +1750,10 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -1772,10 +1767,10 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -1791,7 +1786,9 @@
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
+      <c r="A54" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1800,7 +1797,7 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B56" s="27"/>
       <c r="C56" s="17"/>
@@ -1827,9 +1824,6 @@
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
-        <v>67</v>
-      </c>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1848,12 +1842,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -1861,12 +1855,12 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">

--- a/Excel_Files/COMPASS_Planning.xlsx
+++ b/Excel_Files/COMPASS_Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\COMPASS\COMUNICATIONS\Sprint_31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\COMPASS\COMUNICATIONS\Sprint_34\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -142,9 +142,6 @@
     <t>WAITING</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>IT ADM</t>
   </si>
   <si>
@@ -250,163 +247,226 @@
     <t>Insert new fields as needed. Remember that needs to be included and updated on the "DELIVER" sheet.</t>
   </si>
   <si>
-    <t xml:space="preserve">In order to have na efficient sprint, we will test the above tickets. This will provide us a more accurate view on the current backlog and next topics to handle. </t>
-  </si>
-  <si>
-    <t>IT ADM TEST</t>
+    <t>Deployments will be delivered as soon as code is available.</t>
   </si>
   <si>
     <t>CRITICITY</t>
   </si>
   <si>
+    <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
+  </si>
+  <si>
     <t>GREETINGS</t>
   </si>
   <si>
+    <t xml:space="preserve">I would like to thanks to everyone involved on the project, withouth you the above could not be possible. </t>
+  </si>
+  <si>
     <t>METRICS</t>
   </si>
   <si>
-    <t>CMP_SPRINT_31</t>
-  </si>
-  <si>
-    <t>Not expected</t>
+    <t>IMAGE1</t>
+  </si>
+  <si>
+    <t>IMAGE2</t>
+  </si>
+  <si>
+    <t>CMP_SPRINT_34</t>
+  </si>
+  <si>
+    <t>During the resolution of Sprint 34, Compass Core team will work on some mandatory tickets in order to solve the Automation Tests Flow, corrections on the metadatas regarding SIRIUS, correction of some frontend bugs and finally the first part of the new US CMP-417</t>
   </si>
   <si>
     <t>To be discussed</t>
   </si>
   <si>
-    <t>Based on August holidays, for Sprint 31 we will not deliver any new development or bug fixing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the other hand, Compass Core Team will fully test the below tickets in order to be included on the next release in PROD. </t>
-  </si>
-  <si>
-    <t>CMP-437</t>
-  </si>
-  <si>
-    <t>CMP-119</t>
-  </si>
-  <si>
-    <t>CMP-242</t>
-  </si>
-  <si>
-    <t>CMP-120</t>
-  </si>
-  <si>
-    <t>CMP-361</t>
-  </si>
-  <si>
-    <t>CMP-367</t>
-  </si>
-  <si>
-    <t>CMP-384</t>
-  </si>
-  <si>
-    <t>CMP-413</t>
-  </si>
-  <si>
-    <t>CMP-423</t>
-  </si>
-  <si>
-    <t>CMP-416</t>
-  </si>
-  <si>
-    <t>CMP-16</t>
-  </si>
-  <si>
-    <t>CMP-412</t>
-  </si>
-  <si>
-    <t>CMP-408</t>
-  </si>
-  <si>
-    <t>CMP-407</t>
-  </si>
-  <si>
-    <t>CMP-399</t>
-  </si>
-  <si>
-    <t>CMP-386</t>
-  </si>
-  <si>
-    <t>CMP-109</t>
-  </si>
-  <si>
-    <t>CMP-68</t>
-  </si>
-  <si>
-    <t>CMP-405</t>
-  </si>
-  <si>
-    <t>Analyse and Tests for Sprint 31</t>
-  </si>
-  <si>
-    <t>Calculations : BL Revenue Step 2</t>
-  </si>
-  <si>
-    <t>RevBL - GUI modification to allow RevBL launch and visualisation</t>
-  </si>
-  <si>
-    <t>Calculations : BL Revenue Step 3</t>
-  </si>
-  <si>
-    <t>FTE Keys missing from CALCULATION_KVALUE table</t>
-  </si>
-  <si>
-    <t>Define model for storing monthly results (historisation) - GOI by BusLine</t>
-  </si>
-  <si>
-    <t>Enhancement - specific steps to map old cost centers to new business unit hierarchy</t>
-  </si>
-  <si>
-    <t>Enhancement - specific steps to map old cost centers to new business unit hierarchy - Costs</t>
-  </si>
-  <si>
-    <t>Enhancement - add Step 3 to Cost by BL</t>
-  </si>
-  <si>
-    <t>GUI: Screen Overview</t>
-  </si>
-  <si>
-    <t>Calculation GUI  : differentiate button rev by client from calculate all / revenue by BL  only start rev by BL</t>
-  </si>
-  <si>
-    <t>Delete of a historized version should provoke a physical delete of data</t>
-  </si>
-  <si>
-    <t>Problem uploading multiple keys in KValue integration</t>
-  </si>
-  <si>
-    <t>GUI -KValue Integration File name missing</t>
-  </si>
-  <si>
-    <t>Show warning message to the user launching an export &gt; 1000 kvalues</t>
-  </si>
-  <si>
-    <t>Data Load : Compass Cost Centers Computation</t>
-  </si>
-  <si>
-    <t>Data Load: AUA Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative key values impossible in the GUI </t>
-  </si>
-  <si>
-    <t>Plan the release of 24th of August 2024</t>
-  </si>
-  <si>
-    <t>Documentation and Grooming Sessions on CMP-436</t>
-  </si>
-  <si>
-    <t>Rev BL Step 3 - The system shall apply only key values which are applicable on the calculated period</t>
-  </si>
-  <si>
-    <t>Compass Core Team will test 19 open tickets on backlog.</t>
-  </si>
-  <si>
-    <t>Even thought August is a month of holidays, Compass Core Team will reduce the amont of tickets/defects on backlog.</t>
-  </si>
-  <si>
-    <t>Thanks to everyone involved on the Sprint Planning session. Now, let's keep the pace.</t>
+    <t>Constant Iteractions</t>
+  </si>
+  <si>
+    <t>CMP-421</t>
+  </si>
+  <si>
+    <t>CMP-432</t>
+  </si>
+  <si>
+    <t>CMP-160</t>
+  </si>
+  <si>
+    <t>CMP-441</t>
+  </si>
+  <si>
+    <t>CMP-452</t>
+  </si>
+  <si>
+    <t>CMP-422</t>
+  </si>
+  <si>
+    <t>CMP-417</t>
+  </si>
+  <si>
+    <t>CMP-443</t>
+  </si>
+  <si>
+    <t>CMP-295</t>
+  </si>
+  <si>
+    <t>CMP-296</t>
+  </si>
+  <si>
+    <t>CMP-297</t>
+  </si>
+  <si>
+    <t>CMP-298</t>
+  </si>
+  <si>
+    <t>CMP-299</t>
+  </si>
+  <si>
+    <t>CMP-300</t>
+  </si>
+  <si>
+    <t>CMP-301</t>
+  </si>
+  <si>
+    <t>CMP-302</t>
+  </si>
+  <si>
+    <t>CMP-303</t>
+  </si>
+  <si>
+    <t>CMP-304</t>
+  </si>
+  <si>
+    <t>CMP-305</t>
+  </si>
+  <si>
+    <t>CMP-306</t>
+  </si>
+  <si>
+    <t>CMP-307</t>
+  </si>
+  <si>
+    <t>CMP-292</t>
+  </si>
+  <si>
+    <t>CMP-293</t>
+  </si>
+  <si>
+    <t>CMP-294</t>
+  </si>
+  <si>
+    <t>MINOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_REFSERVCNTR : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_REFMETRIC : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_REFPNLITEM : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_REFFACT : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_REFENTITY : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_REFBLPNLTYPE : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_REFBLL2 : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_REFBLL1 : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_PNLTYPE : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_PNLITEMD : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_PNLITEMC : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_PNLITEMB : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_PNLITEMA : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_PNL : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_FTEAVG : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRIUS_FTE : Incorrect Table Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONE - Calculation -Period input in the Period search box not possible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation launch process timing in GUI screen is 2H before </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug GUI ACQ : question mark description </t>
+  </si>
+  <si>
+    <t>TRIVIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI -Historisation: Failed or In Progress shall be notified to the user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erroneous label for Cost Centre Code in CCPerimeter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training on GUI framework and deplyoment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhancement - GUI of LDD / BCT / branch links to allow AUC allocation in step 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercury table allows duplicate active 'comercialcustomercode_' on loading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metadata fix regarding the SIRIUS source will be handled by Jean Verducci </t>
+  </si>
+  <si>
+    <t>Creation of ticket for "Exclude Net Interest Margins In Step 2"</t>
+  </si>
+  <si>
+    <t>GROOMING</t>
+  </si>
+  <si>
+    <t>CMP-428</t>
+  </si>
+  <si>
+    <t>Indicator and alert when other computation processes are running</t>
+  </si>
+  <si>
+    <t>GUI -Historisation: Failed or In Progress shall be notified to the user</t>
+  </si>
+  <si>
+    <t>UMS Request for Nominal Accounts creation</t>
+  </si>
+  <si>
+    <t>Nominal Accounts for different environments (DEV, QUAL, PREPROD)</t>
+  </si>
+  <si>
+    <t>Creation of documentation based on the current scope, to be delivered until the last day of sprint.</t>
+  </si>
+  <si>
+    <t>Regarding the two listed tickets, the first one (CMP-428) will be groomed, in order to clarify some points for development phase.</t>
+  </si>
+  <si>
+    <t>The second ticket (CMP-441) necessary some clarifications between Pedro Almeida and Jean Verducci in order to achieve the goal of the Change Request.</t>
   </si>
 </sst>
 </file>
@@ -491,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -557,6 +617,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,7 +633,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -714,6 +780,9 @@
         <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -757,7 +826,6 @@
       <sheetName val="SPRINT 33"/>
       <sheetName val="SPRINT 34"/>
       <sheetName val="SPRINT 35"/>
-      <sheetName val="SPRINT 36"/>
       <sheetName val="DATA"/>
       <sheetName val="BACKLOG"/>
       <sheetName val="BACKLOG_PERFORMANCE"/>
@@ -795,6 +863,7 @@
       <sheetName val="SPRINT 27"/>
       <sheetName val="SPRINT 28"/>
       <sheetName val="SPRINT 29"/>
+      <sheetName val="Concerto_Sprints_20240627"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -842,18 +911,18 @@
       <sheetData sheetId="42"/>
       <sheetData sheetId="43"/>
       <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
+      <sheetData sheetId="45" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A32:F51" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="A32:F51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A55:F57" totalsRowShown="0" headerRowDxfId="34">
+  <autoFilter ref="A55:F57"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
-    <tableColumn id="2" name="JIRA"/>
+    <tableColumn id="2" name="JIRA" dataDxfId="33"/>
     <tableColumn id="3" name="DESCRIPTION"/>
     <tableColumn id="4" name="STATUS"/>
     <tableColumn id="5" name="ACTION"/>
@@ -864,8 +933,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G25" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A24:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G48" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A24:G48"/>
   <tableColumns count="7">
     <tableColumn id="1" name="PRIORITY" dataDxfId="30"/>
     <tableColumn id="2" name="JIRA" dataDxfId="29"/>
@@ -1218,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,7 +1312,7 @@
     <row r="1" spans="1:4" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>9</v>
@@ -1251,32 +1320,32 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6">
-        <v>45516</v>
+        <v>45607</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="6">
-        <v>45534</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1294,13 +1363,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -1314,13 +1383,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>118</v>
-      </c>
+      <c r="A12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1330,10 +1397,10 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1348,13 +1415,13 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1368,7 +1435,9 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1377,10 +1446,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -1402,487 +1471,679 @@
         <v>20</v>
       </c>
       <c r="G24" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="21">
+        <v>3</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="26" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>2</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="21">
+        <v>5</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="21">
+        <v>1</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="21">
+        <v>8</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="21">
+        <v>5</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:7" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:6" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B54" s="29"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>17</v>
       </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B56" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="29"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="29"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1920,13 +2181,13 @@
           <x14:formula1>
             <xm:f>AUTOMATION!$A$13:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>A25 A33:A51</xm:sqref>
+          <xm:sqref>A25:A48 A56:A57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$13:$E$21</xm:f>
           </x14:formula1>
-          <xm:sqref>D25 D33:D51</xm:sqref>
+          <xm:sqref>D25:D48 D56:D57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1956,23 +2217,23 @@
         <v>11</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1983,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -2000,26 +2261,26 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>5</v>
@@ -2030,7 +2291,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>0</v>
@@ -2038,10 +2299,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -2052,7 +2313,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>1</v>
@@ -2063,18 +2324,18 @@
         <v>19</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>2</v>
@@ -2082,49 +2343,49 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Files/COMPASS_Planning.xlsx
+++ b/Excel_Files/COMPASS_Planning.xlsx
@@ -202,9 +202,6 @@
     <t>NOVEMBER</t>
   </si>
   <si>
-    <t>DECEMBBER</t>
-  </si>
-  <si>
     <t>TO</t>
   </si>
   <si>
@@ -467,6 +464,9 @@
   </si>
   <si>
     <t>The second ticket (CMP-441) necessary some clarifications between Pedro Almeida and Jean Verducci in order to achieve the goal of the Change Request.</t>
+  </si>
+  <si>
+    <t>DECEMBER</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -628,6 +628,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1332,7 @@
         <v>45607</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6">
         <v>45628</v>
@@ -1337,7 +1343,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1363,7 +1369,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3">
         <v>24</v>
@@ -1382,8 +1388,8 @@
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>76</v>
+      <c r="A11" s="32" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1415,13 +1421,13 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1436,7 +1442,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1"/>
     </row>
@@ -1471,7 +1477,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1479,10 +1485,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>1</v>
@@ -1491,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1499,10 +1505,10 @@
         <v>19</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>0</v>
@@ -1511,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1519,10 +1525,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>2</v>
@@ -1531,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1539,10 +1545,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>0</v>
@@ -1551,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1559,10 +1565,10 @@
         <v>19</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>2</v>
@@ -1571,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1579,10 +1585,10 @@
         <v>17</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>1</v>
@@ -1591,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1599,10 +1605,10 @@
         <v>17</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>0</v>
@@ -1611,7 +1617,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1619,10 +1625,10 @@
         <v>19</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>0</v>
@@ -1631,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1639,10 +1645,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>0</v>
@@ -1651,7 +1657,7 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1659,10 +1665,10 @@
         <v>19</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>0</v>
@@ -1671,7 +1677,7 @@
         <v>0.5</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1679,10 +1685,10 @@
         <v>19</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>0</v>
@@ -1691,7 +1697,7 @@
         <v>0.5</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1699,10 +1705,10 @@
         <v>19</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>0</v>
@@ -1711,7 +1717,7 @@
         <v>0.5</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1719,10 +1725,10 @@
         <v>19</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>0</v>
@@ -1731,7 +1737,7 @@
         <v>0.5</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1739,10 +1745,10 @@
         <v>19</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>0</v>
@@ -1751,7 +1757,7 @@
         <v>0.5</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1759,10 +1765,10 @@
         <v>19</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>0</v>
@@ -1771,7 +1777,7 @@
         <v>0.5</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1779,10 +1785,10 @@
         <v>19</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>0</v>
@@ -1791,7 +1797,7 @@
         <v>0.5</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1799,10 +1805,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>0</v>
@@ -1811,7 +1817,7 @@
         <v>0.5</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1819,10 +1825,10 @@
         <v>19</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>0</v>
@@ -1831,7 +1837,7 @@
         <v>0.5</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1839,10 +1845,10 @@
         <v>19</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>0</v>
@@ -1851,7 +1857,7 @@
         <v>0.5</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1859,10 +1865,10 @@
         <v>19</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="27" t="s">
         <v>0</v>
@@ -1871,7 +1877,7 @@
         <v>0.5</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1879,10 +1885,10 @@
         <v>19</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>0</v>
@@ -1891,7 +1897,7 @@
         <v>0.5</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1899,10 +1905,10 @@
         <v>19</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>0</v>
@@ -1911,7 +1917,7 @@
         <v>0.5</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1919,10 +1925,10 @@
         <v>19</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>0</v>
@@ -1931,7 +1937,7 @@
         <v>0.5</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1939,10 +1945,10 @@
         <v>19</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="21" t="s">
         <v>0</v>
@@ -1951,7 +1957,7 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,13 +1967,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52" s="1"/>
     </row>
@@ -2003,16 +2009,16 @@
         <v>17</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
         <v>132</v>
-      </c>
-      <c r="C56" t="s">
-        <v>133</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2020,16 +2026,16 @@
         <v>18</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,13 +2046,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" s="1"/>
     </row>
@@ -2056,19 +2062,19 @@
     </row>
     <row r="63" spans="1:6" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="29"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="1"/>
     </row>
@@ -2098,17 +2104,17 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="32" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2116,12 +2122,12 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2206,7 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,12 +2223,12 @@
         <v>11</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2233,7 +2239,7 @@
         <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2244,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -2261,23 +2267,23 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>39</v>
@@ -2299,7 +2305,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>41</v>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>44</v>
@@ -2346,7 +2352,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2354,7 +2360,7 @@
         <v>46</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2362,7 +2368,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2370,7 +2376,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2385,7 +2391,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Files/COMPASS_Planning.xlsx
+++ b/Excel_Files/COMPASS_Planning.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\COMPASS\COMUNICATIONS\Sprint_34\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\COMPASS\COMUNICATIONS\Sprint_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -271,202 +271,106 @@
     <t>IMAGE2</t>
   </si>
   <si>
-    <t>CMP_SPRINT_34</t>
-  </si>
-  <si>
-    <t>During the resolution of Sprint 34, Compass Core team will work on some mandatory tickets in order to solve the Automation Tests Flow, corrections on the metadatas regarding SIRIUS, correction of some frontend bugs and finally the first part of the new US CMP-417</t>
-  </si>
-  <si>
-    <t>To be discussed</t>
-  </si>
-  <si>
     <t>Constant Iteractions</t>
   </si>
   <si>
-    <t>CMP-421</t>
-  </si>
-  <si>
-    <t>CMP-432</t>
-  </si>
-  <si>
-    <t>CMP-160</t>
-  </si>
-  <si>
-    <t>CMP-441</t>
-  </si>
-  <si>
-    <t>CMP-452</t>
-  </si>
-  <si>
-    <t>CMP-422</t>
-  </si>
-  <si>
-    <t>CMP-417</t>
-  </si>
-  <si>
-    <t>CMP-443</t>
-  </si>
-  <si>
-    <t>CMP-295</t>
-  </si>
-  <si>
-    <t>CMP-296</t>
-  </si>
-  <si>
-    <t>CMP-297</t>
-  </si>
-  <si>
-    <t>CMP-298</t>
-  </si>
-  <si>
-    <t>CMP-299</t>
-  </si>
-  <si>
-    <t>CMP-300</t>
-  </si>
-  <si>
-    <t>CMP-301</t>
-  </si>
-  <si>
-    <t>CMP-302</t>
-  </si>
-  <si>
-    <t>CMP-303</t>
-  </si>
-  <si>
-    <t>CMP-304</t>
-  </si>
-  <si>
-    <t>CMP-305</t>
-  </si>
-  <si>
-    <t>CMP-306</t>
-  </si>
-  <si>
-    <t>CMP-307</t>
-  </si>
-  <si>
-    <t>CMP-292</t>
-  </si>
-  <si>
-    <t>CMP-293</t>
-  </si>
-  <si>
-    <t>CMP-294</t>
-  </si>
-  <si>
     <t>MINOR</t>
   </si>
   <si>
-    <t xml:space="preserve">SIRIUS_REFSERVCNTR : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_REFMETRIC : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_REFPNLITEM : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_REFFACT : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_REFENTITY : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_REFBLPNLTYPE : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_REFBLL2 : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_REFBLL1 : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_PNLTYPE : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_PNLITEMD : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_PNLITEMC : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_PNLITEMB : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_PNLITEMA : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_PNL : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_FTEAVG : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRIUS_FTE : Incorrect Table Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLONE - Calculation -Period input in the Period search box not possible </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation launch process timing in GUI screen is 2H before </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bug GUI ACQ : question mark description </t>
-  </si>
-  <si>
     <t>TRIVIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">GUI -Historisation: Failed or In Progress shall be notified to the user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erroneous label for Cost Centre Code in CCPerimeter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Training on GUI framework and deplyoment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhancement - GUI of LDD / BCT / branch links to allow AUC allocation in step 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercury table allows duplicate active 'comercialcustomercode_' on loading </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metadata fix regarding the SIRIUS source will be handled by Jean Verducci </t>
-  </si>
-  <si>
-    <t>Creation of ticket for "Exclude Net Interest Margins In Step 2"</t>
-  </si>
-  <si>
-    <t>GROOMING</t>
-  </si>
-  <si>
-    <t>CMP-428</t>
-  </si>
-  <si>
-    <t>Indicator and alert when other computation processes are running</t>
-  </si>
-  <si>
-    <t>GUI -Historisation: Failed or In Progress shall be notified to the user</t>
-  </si>
-  <si>
-    <t>UMS Request for Nominal Accounts creation</t>
-  </si>
-  <si>
-    <t>Nominal Accounts for different environments (DEV, QUAL, PREPROD)</t>
-  </si>
-  <si>
     <t>Creation of documentation based on the current scope, to be delivered until the last day of sprint.</t>
   </si>
   <si>
-    <t>Regarding the two listed tickets, the first one (CMP-428) will be groomed, in order to clarify some points for development phase.</t>
-  </si>
-  <si>
-    <t>The second ticket (CMP-441) necessary some clarifications between Pedro Almeida and Jean Verducci in order to achieve the goal of the Change Request.</t>
-  </si>
-  <si>
     <t>DECEMBER</t>
+  </si>
+  <si>
+    <t>CMP_SPRINT_35</t>
+  </si>
+  <si>
+    <t>December 21st</t>
+  </si>
+  <si>
+    <t>During the resolution of Sprint 35, Compass Core team will work on some mandatory tickets in order to solve the Revenue Business Line Step 2, corrections on the metadatas regarding BCT, MERCURY and MNI, correction of some frontend bugs and finally the historisation.</t>
+  </si>
+  <si>
+    <t>CMP-418</t>
+  </si>
+  <si>
+    <t>CMP-282</t>
+  </si>
+  <si>
+    <t>CMP-450</t>
+  </si>
+  <si>
+    <t>CMP-389</t>
+  </si>
+  <si>
+    <t>CMP-402</t>
+  </si>
+  <si>
+    <t>CMP-454</t>
+  </si>
+  <si>
+    <t>CMP-456</t>
+  </si>
+  <si>
+    <t>CMP-308</t>
+  </si>
+  <si>
+    <t>CMP-309</t>
+  </si>
+  <si>
+    <t>CMP-310</t>
+  </si>
+  <si>
+    <t>CMP-311</t>
+  </si>
+  <si>
+    <t>CMP-312</t>
+  </si>
+  <si>
+    <t>Historisation - 4th and above New version creation should not be possible</t>
+  </si>
+  <si>
+    <t>Test Automation - 1º Test Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periods end in 202412 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI - Key Active Flag </t>
+  </si>
+  <si>
+    <t>KValue Integration and Data Acquisition Status details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RevBL step 2 - exclude certain PNL ITEM from step 2 allocation </t>
+  </si>
+  <si>
+    <t>Historisation of month modifies also historical data on previous months</t>
+  </si>
+  <si>
+    <t>MNI_MNI : Incorrect Table Metadata</t>
+  </si>
+  <si>
+    <t>MERCURY_MERCURY : Incorrect Table Metadata</t>
+  </si>
+  <si>
+    <t>CALCULATION_REVCLISTEP3 : Incorrect Table Metadata</t>
+  </si>
+  <si>
+    <t>CALCULATION_KVALUE : Incorrect Table Metadata</t>
+  </si>
+  <si>
+    <t>BCT_BCT : Incorrect Table Metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metadata fix regarding the BCT, MERCURY and MNI  sources will be handled by Jean Verducci </t>
+  </si>
+  <si>
+    <t>Development and testing of the scope until last day of Sprint in order to have the necessary approvals for the release of December 21st 2024.</t>
   </si>
 </sst>
 </file>
@@ -623,17 +527,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,8 +828,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A55:F57" totalsRowShown="0" headerRowDxfId="34">
-  <autoFilter ref="A55:F57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A44:F46" totalsRowShown="0" headerRowDxfId="34">
+  <autoFilter ref="A44:F46"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA" dataDxfId="33"/>
@@ -939,8 +843,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G48" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A24:G48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A24:G37" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A24:G37"/>
   <tableColumns count="7">
     <tableColumn id="1" name="PRIORITY" dataDxfId="30"/>
     <tableColumn id="2" name="JIRA" dataDxfId="29"/>
@@ -1293,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,13 +1233,13 @@
         <v>37</v>
       </c>
       <c r="B3" s="6">
-        <v>45607</v>
+        <v>45628</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="6">
-        <v>45628</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1343,15 +1247,15 @@
         <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1369,13 +1273,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>41</v>
+        <v>13.5</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -1388,8 +1292,8 @@
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>75</v>
+      <c r="A11" s="30" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,10 +1307,10 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="32"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1421,13 +1325,13 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1452,10 +1356,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -1485,37 +1389,29 @@
         <v>19</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="21">
-        <v>3</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
       <c r="G25" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="21">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
       <c r="G26" s="21" t="s">
         <v>68</v>
       </c>
@@ -1525,37 +1421,29 @@
         <v>19</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="21">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
       <c r="G28" s="21" t="s">
         <v>68</v>
       </c>
@@ -1565,77 +1453,61 @@
         <v>19</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
       <c r="G29" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="21">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
       <c r="G30" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="21">
-        <v>8</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
       <c r="G31" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="21">
-        <v>5</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
       <c r="G32" s="21" t="s">
         <v>67</v>
       </c>
@@ -1645,19 +1517,15 @@
         <v>19</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0.5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1665,19 +1533,15 @@
         <v>19</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="21">
-        <v>0.5</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="G34" s="21" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1685,19 +1549,15 @@
         <v>19</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="21">
-        <v>0.5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
       <c r="G35" s="21" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1705,451 +1565,181 @@
         <v>19</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C36" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="G36" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="21"/>
+      <c r="G37" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="28" t="s">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:7" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="31"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="31"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="23"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="31"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:6" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="29"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="29"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" s="29"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="29"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="30"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A59:B59"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2187,13 +1777,13 @@
           <x14:formula1>
             <xm:f>AUTOMATION!$A$13:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>A25:A48 A56:A57</xm:sqref>
+          <xm:sqref>A25:A37 A45:A46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$E$13:$E$21</xm:f>
           </x14:formula1>
-          <xm:sqref>D25:D48 D56:D57</xm:sqref>
+          <xm:sqref>D25:D37 D45:D46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2391,7 +1981,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
